--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2E7C8-04BA-4B5A-A379-D56A1FDB0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5AF917-1749-41EE-A679-77364F629DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="4440" windowWidth="32130" windowHeight="15420" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -45,23 +45,13 @@
     <t>resource</t>
   </si>
   <si>
-    <t>costume1</t>
-  </si>
-  <si>
     <t>slotnum</t>
   </si>
   <si>
     <t>stringId</t>
   </si>
   <si>
-    <t>costume2</t>
-  </si>
-  <si>
     <t>costume0</t>
-  </si>
-  <si>
-    <t>costume3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
@@ -72,43 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성장 패스에서 획득 가능합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점에서 구매 가능합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뉴비 루시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>견습생 루시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블러드 루시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크 루시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>displayOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costume4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석체크에서 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리본 루시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -506,13 +464,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -520,114 +478,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5AF917-1749-41EE-A679-77364F629DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAB891C-1690-47F3-B446-5C766189042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3105" yWindow="3435" windowWidth="34365" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,16 @@
   <si>
     <t>displayOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume2</t>
+  </si>
+  <si>
+    <t>costume3</t>
   </si>
 </sst>
 </file>
@@ -431,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,6 +506,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAB891C-1690-47F3-B446-5C766189042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A764A-804D-41BD-88B4-405F725708C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="3435" windowWidth="34365" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뉴비 루시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>displayOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,22 @@
   </si>
   <si>
     <t>costume3</t>
+  </si>
+  <si>
+    <t>검사1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -511,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -534,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -557,10 +569,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A764A-804D-41BD-88B4-405F725708C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6AF042-0D33-4E66-A94D-9FA6569C3163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="3435" windowWidth="34365" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4485" yWindow="945" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -90,6 +90,12 @@
   <si>
     <t>검사4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume4</t>
+  </si>
+  <si>
+    <t>검사5</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -555,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -578,12 +584,35 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6AF042-0D33-4E66-A94D-9FA6569C3163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD05256-BB96-4ED0-9A9E-F169E1C98B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="945" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4980" yWindow="6810" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 코스튬 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>displayOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,26 +72,43 @@
     <t>costume3</t>
   </si>
   <si>
-    <t>검사1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검사2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검사3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검사4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume4</t>
   </si>
   <si>
-    <t>검사5</t>
+    <t>견습생 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도련님 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검객 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크 보상으로 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 150 달성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,7 +475,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -518,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -529,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -541,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -552,19 +565,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -575,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -587,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -598,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -610,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD05256-BB96-4ED0-9A9E-F169E1C98B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489B9CE-1DCD-4FA1-8709-8BDDBC132F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="6810" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -99,15 +99,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출석체크 보상으로 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점에서 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨 150 달성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 구매 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크 보상으로 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489B9CE-1DCD-4FA1-8709-8BDDBC132F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2741CE8-AA4F-4DCE-9C71-44849DAB154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="6810" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1755" yWindow="4455" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>출석체크 보상으로 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬 각성시 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,6 +641,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2741CE8-AA4F-4DCE-9C71-44849DAB154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CD64E-06F7-4390-B962-4BBF11B1BE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="4455" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5820" yWindow="2595" windowWidth="26565" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>여우 구슬 각성시 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,6 +680,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624CD64E-06F7-4390-B962-4BBF11B1BE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963B35D-B9EF-4122-8854-10F3F491D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2595" windowWidth="26565" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -131,11 +131,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추석1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추석2</t>
+    <t>추석 이벤트로 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +507,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,16 +692,16 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -711,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -720,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963B35D-B9EF-4122-8854-10F3F491D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42F067-4B09-4707-A897-1DE3582B2D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,17 @@
   </si>
   <si>
     <t>한복 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume8</t>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스로 획득 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,6 +741,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42F067-4B09-4707-A897-1DE3582B2D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE70579-4249-451D-8EBF-9F625EA2C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7920" yWindow="2415" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -146,11 +146,7 @@
     <t>costume8</t>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스로 획득 가능</t>
+    <t>미공개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +514,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -758,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE70579-4249-451D-8EBF-9F625EA2C1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D67C0-B286-4821-8BA6-20BAF7EEFC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2415" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7500" yWindow="3495" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -146,7 +146,11 @@
     <t>costume8</t>
   </si>
   <si>
-    <t>미공개</t>
+    <t>월간 훈련에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법사 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +518,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -745,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D67C0-B286-4821-8BA6-20BAF7EEFC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38F37B-060B-4AD6-897D-DEC44150E1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="3495" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>법사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume9</t>
+  </si>
+  <si>
+    <t>costume10</t>
+  </si>
+  <si>
+    <t>할로윈 이벤트로 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할로윈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할로윈1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,6 +782,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38F37B-060B-4AD6-897D-DEC44150E1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C78036-23BF-454A-8C8F-597AB74890D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>할로윈1</t>
+    <t>악마 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C78036-23BF-454A-8C8F-597AB74890D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99859EEB-B8C7-44E7-8C51-22C7B9DC5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -164,11 +164,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>할로윈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>악마 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99859EEB-B8C7-44E7-8C51-22C7B9DC5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC4179-3748-4F51-BB2C-7ABB9CB19872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="19185" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미등록</t>
+    <t>악마 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC4179-3748-4F51-BB2C-7ABB9CB19872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC7AE2-A813-491A-9DE9-D35F319BF90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="19185" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -146,10 +146,6 @@
     <t>costume8</t>
   </si>
   <si>
-    <t>월간 훈련에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법사 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,21 @@
   </si>
   <si>
     <t>악마 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume11</t>
+  </si>
+  <si>
+    <t>월간 훈련(11월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(10월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,7 +778,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -776,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -787,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -799,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -810,21 +821,44 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC7AE2-A813-491A-9DE9-D35F319BF90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69110235-D37C-417E-BF77-4A1A3540BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미등록</t>
+    <t>여우 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +547,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69110235-D37C-417E-BF77-4A1A3540BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A0800-657A-40B7-8742-2F85F59B21D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -179,7 +179,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여우 호연</t>
+    <t>costume12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출시 100일 이벤트에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -847,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -859,6 +871,29 @@
         <v>37</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A0800-657A-40B7-8742-2F85F59B21D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389A2C2-306A-4467-A5C8-3CEEFF19FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1245" yWindow="4050" windowWidth="29880" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -183,15 +183,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여우 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출시 100일 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아가씨 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +559,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -859,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -882,7 +882,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389A2C2-306A-4467-A5C8-3CEEFF19FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6903C7-E0C8-454A-AA1F-DB5209CAD8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4050" windowWidth="29880" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -192,6 +192,28 @@
   </si>
   <si>
     <t>아가씨 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume13</t>
+  </si>
+  <si>
+    <t>costume14</t>
+  </si>
+  <si>
+    <t>신규월간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(12월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 이벤트에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +237,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,17 +268,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" activeCellId="2" sqref="A8:XFD13 A15:XFD15 A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,141 +778,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +936,52 @@
         <v>41</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6903C7-E0C8-454A-AA1F-DB5209CAD8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662AB64-1E91-4B15-86F6-6D5B5CEDCCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -201,19 +201,19 @@
     <t>costume14</t>
   </si>
   <si>
-    <t>신규월간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스마스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월간 훈련(12월)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>크리스마스 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈귀신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴마사 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" activeCellId="2" sqref="A8:XFD13 A15:XFD15 A16:XFD16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,16 +947,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -970,16 +970,16 @@
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662AB64-1E91-4B15-86F6-6D5B5CEDCCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB773F6D-0232-4CBF-8501-018D78F9420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -214,6 +214,13 @@
   </si>
   <si>
     <t>퇴마사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume15</t>
+  </si>
+  <si>
+    <t>눈귀신 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,6 +992,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB773F6D-0232-4CBF-8501-018D78F9420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4501CFB1-3DD4-49D9-BCDA-D0F7D3DAB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -221,6 +221,17 @@
   </si>
   <si>
     <t>눈귀신 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume16</t>
+  </si>
+  <si>
+    <t>임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제천대성 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,6 +1026,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4501CFB1-3DD4-49D9-BCDA-D0F7D3DAB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8404624-2EEB-4A31-9CB6-F25195B30A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -227,11 +227,11 @@
     <t>costume16</t>
   </si>
   <si>
-    <t>임시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제천대성 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손오공 레벨 8만 달성시 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +619,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1034,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8404624-2EEB-4A31-9CB6-F25195B30A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AA05E-B8C8-4891-9A38-8FF7DF2C39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -224,14 +224,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>제천대성 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손오공 레벨 8만 달성시 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>costume16</t>
-  </si>
-  <si>
-    <t>제천대성 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손오공 레벨 8만 달성시 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 컨텐츠에서 획득 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1031,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
@@ -1043,9 +1056,32 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AA05E-B8C8-4891-9A38-8FF7DF2C39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E182F-E015-4347-9D50-3F81D2ED8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문파 컨텐츠에서 획득 가능</t>
+    <t>문파 상점에서 획득 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +632,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>56</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E182F-E015-4347-9D50-3F81D2ED8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE8C618-8418-4CF9-BCA7-AF4997CFF9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t>문파 상점에서 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(1월)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1085,6 +1097,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE8C618-8418-4CF9-BCA7-AF4997CFF9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B157377-7A9A-475A-B277-7FDF2767B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -252,11 +252,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월간 훈련(1월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장군 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,16 +1105,16 @@
         <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B157377-7A9A-475A-B277-7FDF2767B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BBAE5E-6E89-4C01-A88C-B312B51806C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4575" yWindow="2655" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>대장군 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산적 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산적 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume19</t>
+  </si>
+  <si>
+    <t>costume20</t>
+  </si>
+  <si>
+    <t>신년 출석판 에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1120,6 +1138,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BBAE5E-6E89-4C01-A88C-B312B51806C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C20C6-DE15-4124-AF61-AC036E191965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2655" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <t>costume20</t>
   </si>
   <si>
-    <t>신년 출석판 에서 획득 가능!</t>
+    <t>신년 출석부 에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +662,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C20C6-DE15-4124-AF61-AC036E191965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2656A1-1D53-4E2B-A24E-09DC0554E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -275,6 +275,17 @@
   </si>
   <si>
     <t>신년 출석부 에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume21</t>
+  </si>
+  <si>
+    <t>미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 이벤트에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,6 +1195,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2656A1-1D53-4E2B-A24E-09DC0554E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE66247-A4F6-4826-A8CC-B0F304BEC6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -281,11 +281,22 @@
     <t>costume21</t>
   </si>
   <si>
-    <t>미등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설날 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume22</t>
+  </si>
+  <si>
+    <t>도사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차피오 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(2월)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1214,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
@@ -1212,9 +1223,32 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="1">
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE66247-A4F6-4826-A8CC-B0F304BEC6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B854F83-F3FE-4AEE-A74E-BC3411800553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1290" yWindow="1350" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -297,6 +297,35 @@
   </si>
   <si>
     <t>월간 훈련(2월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume23</t>
+  </si>
+  <si>
+    <t>costume24</t>
+  </si>
+  <si>
+    <t>costume25</t>
+  </si>
+  <si>
+    <t>월간 훈련(3월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄맞이 이벤트 에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,6 +1281,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B854F83-F3FE-4AEE-A74E-BC3411800553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9361A-4438-44CE-BD5A-E581C36BF307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1350" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -326,6 +326,18 @@
   </si>
   <si>
     <t>벚꽃 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둑시니 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둑시니 보스 보상으로 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1350,6 +1362,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9361A-4438-44CE-BD5A-E581C36BF307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC089F-F334-4371-A876-21E630D67F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -338,6 +338,28 @@
   </si>
   <si>
     <t>costume26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume27</t>
+  </si>
+  <si>
+    <t>costume28</t>
+  </si>
+  <si>
+    <t>흑룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(4월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신요괴전 흑룡 보상으로 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,6 +1407,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC089F-F334-4371-A876-21E630D67F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E204D8-A9E3-4173-8B6F-EEC93A1F9EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="14040" yWindow="2835" windowWidth="15630" windowHeight="13200" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -360,6 +360,22 @@
   </si>
   <si>
     <t>신요괴전 흑룡 보상으로 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(5월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1453,6 +1469,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E204D8-A9E3-4173-8B6F-EEC93A1F9EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E592A1-2404-46EC-AEB8-1A6D2942E497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="2835" windowWidth="15630" windowHeight="13200" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="19725" yWindow="2955" windowWidth="18480" windowHeight="13200" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -376,6 +376,24 @@
   </si>
   <si>
     <t>나비 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume30</t>
+  </si>
+  <si>
+    <t>costume31</t>
+  </si>
+  <si>
+    <t>병아리 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 훈련에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1492,6 +1510,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E592A1-2404-46EC-AEB8-1A6D2942E497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601DF7C-1664-456D-85CE-9BE70FD97DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19725" yWindow="2955" windowWidth="18480" windowHeight="13200" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -394,6 +394,24 @@
   </si>
   <si>
     <t>여름 훈련에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume32</t>
+  </si>
+  <si>
+    <t>costume33</t>
+  </si>
+  <si>
+    <t>미정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(6월)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1529,8 +1547,11 @@
       <c r="F32" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1548,6 +1569,55 @@
       </c>
       <c r="F33" s="1" t="s">
         <v>96</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601DF7C-1664-456D-85CE-9BE70FD97DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5682CC-F715-4505-A2C4-9BBEA2D72040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -403,15 +403,15 @@
     <t>costume33</t>
   </si>
   <si>
-    <t>미정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월간 훈련(6월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견우 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직녀 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +799,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1582,7 +1582,7 @@
         <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -1591,7 +1591,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>89</v>
@@ -1614,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5682CC-F715-4505-A2C4-9BBEA2D72040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15FFEA0-8AEF-45C2-9B52-4EE1C016878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -412,6 +412,30 @@
   </si>
   <si>
     <t>직녀 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타 보스 보상으로 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박 이벤트에서  획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1620,6 +1644,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15FFEA0-8AEF-45C2-9B52-4EE1C016878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF4DB3-78D1-4432-B8A2-623595584564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -436,6 +436,17 @@
   </si>
   <si>
     <t>바다 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume36</t>
+  </si>
+  <si>
+    <t>달토끼 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호신 달토끼에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1690,6 +1701,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF4DB3-78D1-4432-B8A2-623595584564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41218BA1-F419-499B-AAF7-41A97DD82A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7230" yWindow="3810" windowWidth="28800" windowHeight="13875" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -447,6 +447,20 @@
   </si>
   <si>
     <t>수호신 달토끼에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume37</t>
+  </si>
+  <si>
+    <t>costume38</t>
+  </si>
+  <si>
+    <t>월간 훈련(7월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1724,6 +1738,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41218BA1-F419-499B-AAF7-41A97DD82A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887043AE-0D3B-42FB-8633-A5B9892DB19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="3810" windowWidth="28800" windowHeight="13875" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2790" yWindow="3915" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -460,7 +460,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7월</t>
+    <t>마교 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마교 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +852,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1769,7 +1773,7 @@
         <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887043AE-0D3B-42FB-8633-A5B9892DB19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52320368-2148-434F-89F6-5BB50B254849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="3915" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -1750,7 +1750,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
@@ -1773,7 +1773,7 @@
         <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52320368-2148-434F-89F6-5BB50B254849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE6F67E-9607-43B0-8CB6-552042386DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4530" yWindow="6000" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -465,6 +465,18 @@
   </si>
   <si>
     <t>마교 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호신 ???에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1788,6 +1800,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE6F67E-9607-43B0-8CB6-552042386DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A699E-E879-46D6-8E13-6AB462B4C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="6000" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9480" yWindow="720" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>수호신 ???에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복날</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1819,6 +1831,32 @@
       <c r="F41" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A699E-E879-46D6-8E13-6AB462B4C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20637B3B-DB0A-4C05-9323-3F6DCEFB4CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="720" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -472,23 +472,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수호신 ???에서 획득 가능!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신규2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복날</t>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +868,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1820,7 +1812,7 @@
         <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -1829,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1840,10 +1832,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -1852,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20637B3B-DB0A-4C05-9323-3F6DCEFB4CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D58F2-A9C9-4E98-ACB8-1E45E0755F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -472,15 +472,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>costume40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업데이트 예정</t>
+    <t>삼목구 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호신 삼목구에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1812,7 +1808,7 @@
         <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -1821,32 +1817,9 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72D58F2-A9C9-4E98-ACB8-1E45E0755F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D55E1-E798-4EF5-9FCF-DB366EFDB5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -477,6 +477,17 @@
   </si>
   <si>
     <t>수호신 삼목구에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume40</t>
+  </si>
+  <si>
+    <t>구미호전 에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1823,6 +1834,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D55E1-E798-4EF5-9FCF-DB366EFDB5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7727CC-5B96-463F-9E5E-1228CD72124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -488,6 +488,16 @@
   </si>
   <si>
     <t>구미호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume41</t>
+  </si>
+  <si>
+    <t>costume42</t>
+  </si>
+  <si>
+    <t>1주년 외형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1857,6 +1867,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7727CC-5B96-463F-9E5E-1228CD72124A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111A0A69-E3BB-46CE-BD73-9126E3E01EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -497,7 +497,19 @@
     <t>costume42</t>
   </si>
   <si>
-    <t>1주년 외형</t>
+    <t>천마 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주년 이벤트판에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호신 천마에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한살 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1875,7 +1887,7 @@
         <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
@@ -1884,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1907,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111A0A69-E3BB-46CE-BD73-9126E3E01EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345B32D7-84F6-4619-8E07-F289411B44A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="10215" yWindow="4305" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -510,6 +510,24 @@
   </si>
   <si>
     <t>한살 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume43</t>
+  </si>
+  <si>
+    <t>costume44</t>
+  </si>
+  <si>
+    <t>요괴지옥 컨텐츠에서 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보차사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습차사 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1925,6 +1943,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345B32D7-84F6-4619-8E07-F289411B44A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F767D1FC-112F-4FC7-88B7-803800D5E15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="4305" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="14805" yWindow="3840" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -523,11 +523,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초보차사 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습차사 호연</t>
+    <t>저승사자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라대왕 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +915,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F767D1FC-112F-4FC7-88B7-803800D5E15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6099C505-95E8-462D-B762-1704240EF1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14805" yWindow="3840" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -528,6 +528,24 @@
   </si>
   <si>
     <t>염라대왕 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume45</t>
+  </si>
+  <si>
+    <t>costume46</t>
+  </si>
+  <si>
+    <t>8월외형1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월외형2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(8월)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,26 +930,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="G47" sqref="G47:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="39.75" customWidth="1"/>
-    <col min="8" max="9" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
+    <col min="6" max="6" width="38.09765625" customWidth="1"/>
+    <col min="7" max="7" width="39.69921875" customWidth="1"/>
+    <col min="8" max="9" width="15.19921875" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -977,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1000,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1023,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1046,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1115,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1253,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1345,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1368,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1391,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1414,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1437,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1529,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1575,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1598,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1644,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1713,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1736,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1805,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1828,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1851,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1920,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1966,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1986,6 +2004,52 @@
         <v>130</v>
       </c>
       <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6099C505-95E8-462D-B762-1704240EF1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09854AD4-70CC-46BA-B968-267430DAFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -537,15 +537,15 @@
     <t>costume46</t>
   </si>
   <si>
-    <t>8월외형1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월외형2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월간 훈련(8월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕자 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,24 +932,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" customWidth="1"/>
-    <col min="6" max="6" width="38.09765625" customWidth="1"/>
-    <col min="7" max="7" width="39.69921875" customWidth="1"/>
-    <col min="8" max="9" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="39.75" customWidth="1"/>
+    <col min="8" max="9" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
@@ -2024,13 +2024,13 @@
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -2047,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09854AD4-70CC-46BA-B968-267430DAFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD07E4C-0558-47AA-B620-67F30127746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>공주 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래전 에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2053,6 +2065,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD07E4C-0558-47AA-B620-67F30127746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BC4690-783C-4221-8023-7298DA74C959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -558,6 +558,17 @@
   </si>
   <si>
     <t>여래전 에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume48</t>
+  </si>
+  <si>
+    <t>강림 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 강림에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2088,6 +2099,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BC4690-783C-4221-8023-7298DA74C959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EAC03-506D-476C-A97C-1640E4E2A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -569,6 +569,24 @@
   </si>
   <si>
     <t>지옥 강림에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume49</t>
+  </si>
+  <si>
+    <t>costume50</t>
+  </si>
+  <si>
+    <t>9월월간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월월간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 훈련(9월)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2122,6 +2140,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EAC03-506D-476C-A97C-1640E4E2A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989DA24-FEF5-4F29-9899-E44ADD30D8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -578,15 +578,15 @@
     <t>costume50</t>
   </si>
   <si>
-    <t>9월월간1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월월간2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월간 훈련(9월)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +974,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2148,7 +2148,7 @@
         <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
@@ -2157,7 +2157,10 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2168,7 +2171,7 @@
         <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>89</v>
@@ -2177,7 +2180,10 @@
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989DA24-FEF5-4F29-9899-E44ADD30D8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8808288C-194E-4111-87BD-DC73774A8653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -587,6 +587,28 @@
   </si>
   <si>
     <t>귀족 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume51</t>
+  </si>
+  <si>
+    <t>costume52</t>
+  </si>
+  <si>
+    <t>월직 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한가위 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 월직차사에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석 이벤트(2022)에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2186,6 +2208,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8808288C-194E-4111-87BD-DC73774A8653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42823FA2-8DAC-4722-AABD-DB1AC407A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>추석 이벤트(2022)에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일직 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 일직차사에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2254,6 +2266,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42823FA2-8DAC-4722-AABD-DB1AC407A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD1D17D-6D23-4565-952D-9C17306A67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -596,10 +596,6 @@
     <t>costume52</t>
   </si>
   <si>
-    <t>월직 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한가위 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,11 +612,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일직 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지옥 일직차사에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해원맥 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕춘 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2228,7 +2228,7 @@
         <v>149</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
@@ -2237,7 +2237,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>89</v>
@@ -2260,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>156</v>
@@ -2283,7 +2283,7 @@
         <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD1D17D-6D23-4565-952D-9C17306A67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F110A-5C81-487E-98E1-4860C75F79B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
   <si>
     <t>id</t>
   </si>
@@ -621,6 +621,20 @@
   </si>
   <si>
     <t>덕춘 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume54</t>
+  </si>
+  <si>
+    <t>costume55</t>
+  </si>
+  <si>
+    <t>천사 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2289,6 +2303,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F110A-5C81-487E-98E1-4860C75F79B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350636E5-4E51-4869-910C-A60ED82BA4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8925" yWindow="2535" windowWidth="24000" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -635,6 +635,31 @@
   </si>
   <si>
     <t>천사 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume56</t>
+  </si>
+  <si>
+    <t>costume57</t>
+  </si>
+  <si>
+    <t>costume58</t>
+  </si>
+  <si>
+    <t>칠선녀 호순(적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠선녀 호순(등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠선녀 호순(황)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계 칠선녀 에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2349,6 +2374,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350636E5-4E51-4869-910C-A60ED82BA4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C363C9-DA75-43C0-B924-52C761DACAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="2535" windowWidth="24000" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="176">
   <si>
     <t>id</t>
   </si>
@@ -660,6 +660,31 @@
   </si>
   <si>
     <t>천상계 칠선녀 에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume59</t>
+  </si>
+  <si>
+    <t>costume60</t>
+  </si>
+  <si>
+    <t>costume61</t>
+  </si>
+  <si>
+    <t>가을외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠선녀 호순(녹)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠선녀 호순(청)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곶감 이벤트 에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2443,6 +2468,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C363C9-DA75-43C0-B924-52C761DACAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222880BE-6ECC-44AD-885E-13B1A390CEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -672,10 +672,6 @@
     <t>costume61</t>
   </si>
   <si>
-    <t>가을외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>칠선녀 호순(녹)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,6 +681,10 @@
   </si>
   <si>
     <t>곶감 이벤트 에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단풍 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2476,7 +2476,7 @@
         <v>169</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>170</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>5</v>
@@ -2522,7 +2522,7 @@
         <v>171</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>5</v>
@@ -2531,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222880BE-6ECC-44AD-885E-13B1A390CEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F6019-257B-4082-8405-0F969BB9BB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2340" yWindow="1800" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -685,6 +685,20 @@
   </si>
   <si>
     <t>단풍 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume62</t>
+  </si>
+  <si>
+    <t>costume63</t>
+  </si>
+  <si>
+    <t>강시 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강시 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2537,6 +2551,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F6019-257B-4082-8405-0F969BB9BB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30E0504-AAA1-44E1-95E1-88A96E573320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1800" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
   <si>
     <t>id</t>
   </si>
@@ -699,6 +699,20 @@
   </si>
   <si>
     <t>강시 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume64</t>
+  </si>
+  <si>
+    <t>costume65</t>
+  </si>
+  <si>
+    <t>칠선녀 호순(남)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠선녀 호순(자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2597,6 +2611,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30E0504-AAA1-44E1-95E1-88A96E573320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A2F8D1-316A-437E-9B17-9DBDEDEFCD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2573,7 +2573,7 @@
         <v>176</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -2596,7 +2596,7 @@
         <v>177</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A2F8D1-316A-437E-9B17-9DBDEDEFCD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41612919-EF01-4D62-BACA-7091E58841B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="191">
   <si>
     <t>id</t>
   </si>
@@ -713,6 +713,31 @@
   </si>
   <si>
     <t>칠선녀 호순(자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume66</t>
+  </si>
+  <si>
+    <t>costume67</t>
+  </si>
+  <si>
+    <t>costume68</t>
+  </si>
+  <si>
+    <t>적도깨비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황도깨비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청도깨비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신 도깨비전에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2657,6 +2682,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41612919-EF01-4D62-BACA-7091E58841B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5915BC7-D183-4010-BDA5-7C30CC66E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -725,19 +725,19 @@
     <t>costume68</t>
   </si>
   <si>
-    <t>적도깨비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황도깨비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청도깨비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신 도깨비전에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="F59" sqref="F59:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2690,7 +2690,7 @@
         <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>5</v>
@@ -2699,7 +2699,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>185</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
@@ -2722,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>186</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>5</v>
@@ -2745,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5915BC7-D183-4010-BDA5-7C30CC66E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF17F4-64AF-49F8-9D87-D4FE55C221F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -738,6 +738,14 @@
   </si>
   <si>
     <t>암량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 외형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59:F60"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2751,6 +2759,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="1">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF17F4-64AF-49F8-9D87-D4FE55C221F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0439363-913C-4E87-8817-C5B9918B8819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
   <si>
     <t>id</t>
   </si>
@@ -746,6 +746,20 @@
   </si>
   <si>
     <t>12월 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume70</t>
+  </si>
+  <si>
+    <t>costume71</t>
+  </si>
+  <si>
+    <t>도깨비3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2782,6 +2796,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0439363-913C-4E87-8817-C5B9918B8819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DCF716-37C3-4EF1-89A4-6AFF545768BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -745,21 +745,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12월 외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume70</t>
   </si>
   <si>
     <t>costume71</t>
   </si>
   <si>
-    <t>도깨비3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비4</t>
+    <t>costume72</t>
+  </si>
+  <si>
+    <t>크리스마스 이벤트에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume73</t>
+  </si>
+  <si>
+    <t>화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루돌프 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여포 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,9 +1162,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -2781,7 +2799,7 @@
         <v>191</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
@@ -2801,10 +2819,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -2824,10 +2842,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -2839,6 +2857,52 @@
         <v>187</v>
       </c>
       <c r="G73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DCF716-37C3-4EF1-89A4-6AFF545768BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011CB92F-514F-4A5D-9E2A-A616D78877B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -769,15 +769,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루돌프 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핑크 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여포 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산타 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2799,7 +2799,7 @@
         <v>191</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
@@ -2868,7 +2868,7 @@
         <v>194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>5</v>
@@ -2891,7 +2891,7 @@
         <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011CB92F-514F-4A5D-9E2A-A616D78877B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2DF88-4874-480B-BAF5-D73A619A5B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -778,6 +778,20 @@
   </si>
   <si>
     <t>산타 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume74</t>
+  </si>
+  <si>
+    <t>costume75</t>
+  </si>
+  <si>
+    <t>흑량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2906,6 +2920,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE2DF88-4874-480B-BAF5-D73A619A5B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3AEBE8-88F8-4112-A856-FAF8671F0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3990" yWindow="1680" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="211">
   <si>
     <t>id</t>
   </si>
@@ -792,6 +792,24 @@
   </si>
   <si>
     <t>미량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume76</t>
+  </si>
+  <si>
+    <t>검은토끼외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume77</t>
+  </si>
+  <si>
+    <t>눈사람 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈사람 이벤트에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1176,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2966,6 +2984,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3AEBE8-88F8-4112-A856-FAF8671F0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D370F0C-F62B-49C8-9316-4AE50D669769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="1680" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -798,18 +798,18 @@
     <t>costume76</t>
   </si>
   <si>
-    <t>검은토끼외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>costume77</t>
   </si>
   <si>
-    <t>눈사람 외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>눈사람 이벤트에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은토끼 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈사람</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2992,7 +2992,7 @@
         <v>206</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>5</v>
@@ -3012,19 +3012,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="1">
-        <v>8</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D370F0C-F62B-49C8-9316-4AE50D669769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811878CB-19C8-40E1-8172-6862EEF4CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -810,6 +810,42 @@
   </si>
   <si>
     <t>눈사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume78</t>
+  </si>
+  <si>
+    <t>costume79</t>
+  </si>
+  <si>
+    <t>costume80</t>
+  </si>
+  <si>
+    <t>costume81</t>
+  </si>
+  <si>
+    <t>수미산에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지국천왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 우두머리에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3030,6 +3066,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>8</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811878CB-19C8-40E1-8172-6862EEF4CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47EF1E2-F10A-4FBD-A7F0-3E8C9049EB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="225">
   <si>
     <t>id</t>
   </si>
@@ -846,6 +846,20 @@
   </si>
   <si>
     <t>남량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume82</t>
+  </si>
+  <si>
+    <t>광목천왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume83</t>
+  </si>
+  <si>
+    <t>현무 호순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,7 +1236,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1230,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3158,6 +3172,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1">
+        <v>8</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Costume.xlsx
+++ b/Assets/06.Table/Costume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47EF1E2-F10A-4FBD-A7F0-3E8C9049EB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56737E33-C191-4CA8-9D7D-3B54ED6AC2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Costume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="232">
   <si>
     <t>id</t>
   </si>
@@ -860,6 +860,32 @@
   </si>
   <si>
     <t>현무 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume84</t>
+  </si>
+  <si>
+    <t>costume85</t>
+  </si>
+  <si>
+    <t>증장천왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다문천왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자 동굴에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +1262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1244,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3218,6 +3244,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>8</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>8</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
